--- a/P1/Usability-review-template.xlsx
+++ b/P1/Usability-review-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy111\Documents\GitHub\LemonTeam-DIU2\P1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\3º\Segundo Cuatrimestre\DIU\LemonTeam-DIU2\P1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8346E2B3-D92F-461E-A03C-258B08787B74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6EF058-AD53-450B-8991-6E248CC864AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valoración Usabilidad" sheetId="1" r:id="rId1"/>
@@ -2458,13 +2458,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2482,11 +2482,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -2831,17 +2831,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
       <c r="J1" s="4"/>
       <c r="K1" s="6"/>
       <c r="L1" s="5"/>
@@ -2888,10 +2888,10 @@
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="23"/>
       <c r="D3" s="24" t="s">
         <v>10</v>
@@ -3018,19 +3018,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="85" t="s">
+      <c r="K7" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="87" t="s">
+      <c r="O7" s="100" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="18"/>
@@ -3055,11 +3055,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="39"/>
@@ -6317,90 +6317,90 @@
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A119" s="88" t="str">
+      <c r="A119" s="90" t="str">
         <f>"* Very poor (less than "&amp;('Rating ranges'!A4)&amp;") - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks."</f>
         <v>* Very poor (less than 29) - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks.</v>
       </c>
-      <c r="B119" s="89"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="89"/>
-      <c r="G119" s="89"/>
-      <c r="H119" s="89"/>
-      <c r="I119" s="90"/>
+      <c r="B119" s="91"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="91"/>
+      <c r="E119" s="91"/>
+      <c r="F119" s="91"/>
+      <c r="G119" s="91"/>
+      <c r="H119" s="91"/>
+      <c r="I119" s="92"/>
       <c r="J119" s="1"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="15" customHeight="1">
-      <c r="A120" s="91" t="str">
+      <c r="A120" s="93" t="str">
         <f>"* Poor (between "&amp;('Rating ranges'!A4)&amp;" and "&amp;('Rating ranges'!A5)&amp;") - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks."</f>
         <v>* Poor (between 29 and 49) - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks.</v>
       </c>
-      <c r="B120" s="86"/>
-      <c r="C120" s="86"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86"/>
-      <c r="I120" s="92"/>
+      <c r="B120" s="89"/>
+      <c r="C120" s="89"/>
+      <c r="D120" s="89"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="89"/>
+      <c r="G120" s="89"/>
+      <c r="H120" s="89"/>
+      <c r="I120" s="94"/>
       <c r="J120" s="1"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A121" s="93" t="str">
+      <c r="A121" s="95" t="str">
         <f>"* Moderate (between "&amp;('Rating ranges'!A5)&amp;" and "&amp;('Rating ranges'!A6)&amp;") - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved."</f>
         <v>* Moderate (between 49 and 69) - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved.</v>
       </c>
-      <c r="B121" s="86"/>
-      <c r="C121" s="86"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="86"/>
-      <c r="F121" s="86"/>
-      <c r="G121" s="86"/>
-      <c r="H121" s="86"/>
-      <c r="I121" s="92"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="89"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="89"/>
+      <c r="G121" s="89"/>
+      <c r="H121" s="89"/>
+      <c r="I121" s="94"/>
       <c r="J121" s="1"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A122" s="91" t="str">
+      <c r="A122" s="93" t="str">
         <f>"* Good (between "&amp;('Rating ranges'!A6)&amp;" and "&amp;('Rating ranges'!A7)&amp;") - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks."</f>
         <v>* Good (between 69 and 89) - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks.</v>
       </c>
-      <c r="B122" s="86"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="H122" s="86"/>
-      <c r="I122" s="92"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="89"/>
+      <c r="E122" s="89"/>
+      <c r="F122" s="89"/>
+      <c r="G122" s="89"/>
+      <c r="H122" s="89"/>
+      <c r="I122" s="94"/>
       <c r="J122" s="1"/>
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A123" s="94" t="str">
+      <c r="A123" s="96" t="str">
         <f>"* Excellent (more than "&amp;('Rating ranges'!A7)&amp;") - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system."</f>
         <v>* Excellent (more than 89) - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system.</v>
       </c>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="95"/>
-      <c r="F123" s="95"/>
-      <c r="G123" s="95"/>
-      <c r="H123" s="95"/>
-      <c r="I123" s="96"/>
+      <c r="B123" s="97"/>
+      <c r="C123" s="97"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="97"/>
+      <c r="G123" s="97"/>
+      <c r="H123" s="97"/>
+      <c r="I123" s="98"/>
       <c r="J123" s="1"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
@@ -16943,18 +16943,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A119:I119"/>
     <mergeCell ref="A120:I120"/>
     <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <conditionalFormatting sqref="D111 D113 D115 D105 D107 D101 D103 D89 D91 D93 D95 D97 D79 D81 D83 D85 D69 D71 D73 D75 D67 D63 D59 D61 D49 D51 D53 D55 D29 D35 D37 D39 D41 D43 D45 D31:D33 D21 D23:D25 D17 D9 D11 D13 D15">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -16977,9 +16977,9 @@
     <hyperlink ref="C126" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -17007,17 +17007,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
       <c r="L1" s="5"/>
@@ -17064,10 +17064,10 @@
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="23"/>
       <c r="D3" s="24" t="s">
         <v>10</v>
@@ -17194,19 +17194,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="85" t="s">
+      <c r="K7" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="87" t="s">
+      <c r="O7" s="100" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="18"/>
@@ -17231,11 +17231,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="39"/>
@@ -20455,90 +20455,90 @@
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A119" s="88" t="str">
+      <c r="A119" s="90" t="str">
         <f>"* Very poor (less than "&amp;('Rating ranges'!A4)&amp;") - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks."</f>
         <v>* Very poor (less than 29) - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks.</v>
       </c>
-      <c r="B119" s="89"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="89"/>
-      <c r="G119" s="89"/>
-      <c r="H119" s="89"/>
-      <c r="I119" s="90"/>
+      <c r="B119" s="91"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="91"/>
+      <c r="E119" s="91"/>
+      <c r="F119" s="91"/>
+      <c r="G119" s="91"/>
+      <c r="H119" s="91"/>
+      <c r="I119" s="92"/>
       <c r="J119" s="1"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="15" customHeight="1">
-      <c r="A120" s="91" t="str">
+      <c r="A120" s="93" t="str">
         <f>"* Poor (between "&amp;('Rating ranges'!A4)&amp;" and "&amp;('Rating ranges'!A5)&amp;") - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks."</f>
         <v>* Poor (between 29 and 49) - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks.</v>
       </c>
-      <c r="B120" s="86"/>
-      <c r="C120" s="86"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86"/>
-      <c r="I120" s="92"/>
+      <c r="B120" s="89"/>
+      <c r="C120" s="89"/>
+      <c r="D120" s="89"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="89"/>
+      <c r="G120" s="89"/>
+      <c r="H120" s="89"/>
+      <c r="I120" s="94"/>
       <c r="J120" s="1"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A121" s="93" t="str">
+      <c r="A121" s="95" t="str">
         <f>"* Moderate (between "&amp;('Rating ranges'!A5)&amp;" and "&amp;('Rating ranges'!A6)&amp;") - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved."</f>
         <v>* Moderate (between 49 and 69) - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved.</v>
       </c>
-      <c r="B121" s="86"/>
-      <c r="C121" s="86"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="86"/>
-      <c r="F121" s="86"/>
-      <c r="G121" s="86"/>
-      <c r="H121" s="86"/>
-      <c r="I121" s="92"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="89"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="89"/>
+      <c r="G121" s="89"/>
+      <c r="H121" s="89"/>
+      <c r="I121" s="94"/>
       <c r="J121" s="1"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A122" s="91" t="str">
+      <c r="A122" s="93" t="str">
         <f>"* Good (between "&amp;('Rating ranges'!A6)&amp;" and "&amp;('Rating ranges'!A7)&amp;") - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks."</f>
         <v>* Good (between 69 and 89) - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks.</v>
       </c>
-      <c r="B122" s="86"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="H122" s="86"/>
-      <c r="I122" s="92"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="89"/>
+      <c r="E122" s="89"/>
+      <c r="F122" s="89"/>
+      <c r="G122" s="89"/>
+      <c r="H122" s="89"/>
+      <c r="I122" s="94"/>
       <c r="J122" s="1"/>
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A123" s="94" t="str">
+      <c r="A123" s="96" t="str">
         <f>"* Excellent (more than "&amp;('Rating ranges'!A7)&amp;") - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system."</f>
         <v>* Excellent (more than 89) - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system.</v>
       </c>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="95"/>
-      <c r="F123" s="95"/>
-      <c r="G123" s="95"/>
-      <c r="H123" s="95"/>
-      <c r="I123" s="96"/>
+      <c r="B123" s="97"/>
+      <c r="C123" s="97"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="97"/>
+      <c r="G123" s="97"/>
+      <c r="H123" s="97"/>
+      <c r="I123" s="98"/>
       <c r="J123" s="1"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
@@ -31073,6 +31073,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="A1:I1"/>
@@ -31080,11 +31085,6 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
   </mergeCells>
   <conditionalFormatting sqref="D111 D113 D115 D105 D107 D101 D103 D89 D91 D93 D95 D97 D79 D81 D83 D85 D69 D71 D73 D75 D67 D63 D59 D61 D49 D51 D53 D55 D29 D35 D37 D39 D41 D43 D45 D31:D33 D21 D23:D25 D17 D9 D11 D13 D15">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -31124,11 +31124,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="B2" s="2"/>
@@ -35788,9 +35788,9 @@
       <c r="C1" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="61">
